--- a/fpt_download/output.xlsx
+++ b/fpt_download/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,244 +436,663 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mã số thuế</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mã tra cứu</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Số hóa đơn</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Đơn vị bán hàng</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Địa chỉ</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Điện thoại</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Số tài khoản</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Mã số thuế bán</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Địa chỉ bán</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Số tài khoản bán</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Họ tên người mua hàng</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Địa chỉ.1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Số tài khoản.1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Địa chỉ mua</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Mã số thuế mua</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>xml_file</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00023079</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CÔNG TY CỔ PHẦN PHÚ TRƯỜNG QUỐC TẾ</t>
+          <t>304244470</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15A1 Đường Nguyễn Hữu Thọ, Xã Phước Kiển, Huyện Nhà Bè, Thành phố Hồ Chí Minh, Việt Nam</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>r08e17y79g</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://tracuuhoadon.fpt.com.vn/search.html</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0181003527080</t>
+          <t xml:space="preserve">fail: InvalidSessionIdException: Message: invalid session id
+Stacktrace:
+	GetHandleVerifier [0x0x7ff7f3ea6f95+76917]
+	GetHandleVerifier [0x0x7ff7f3ea6ff0+77008]
+	(No symbol) [0x0x7ff7f3c59c1c]
+	(No symbol) [0x0x7ff7f3ca055f]
+	(No symbol) [0x0x7ff7f3cd8332]
+	(No symbol) [0x0x7ff7f3cd2e53]
+	(No symbol) [0x0x7ff7f3cd1f19]
+	(No symbol) [0x0x7ff7f3c24b05]
+	GetHandleVerifier [0x0x7ff7f417d2cd+3051437]
+	GetHandleVerifier [0x0x7ff7f4177923+3028483]
+	GetHandleVerifier [0x0x7ff7f41958bd+3151261]
+	GetHandleVerifier [0x0x7ff7f3ec185e+185662]
+	GetHandleVerifier [0x0x7ff7f3ec971f+218111]
+	(No symbol) [0x0x7ff7f3c23b00]
+	GetHandleVerifier [0x0x7ff7f4295f38+4201496]
+	BaseThreadInitThunk [0x0x7ffaf4e57374+20]
+	RtlUserThreadStart [0x0x7ffaf6d1cc91+33]
+</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Liên Hiệp Hợp Tác Xã Thương Mại TP.HCM</t>
+          <t>00068496</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>199-205 Nguyễn Thái Học, Phường Phạm Ngũ Lão, Quận 01, Thành Phố Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>CÔNG TY CỔ PHẦN BA HUÂN</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0304244470</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>đã tải thành công</t>
+          <t>22 Nguyễn Đình Chi, Phường 09, Quận 6, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Liên Hiệp Hợp Tác Xã Thương Mại TP. Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>199-205 Nguyễn Thái Học, Phường Phạm Ngũ Lão, Quận 1, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0301175691</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0304244470r08e17y79g.xml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00000094</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CÔNG TY TNHH ĐẦU TƯ - SẢN XUẤT VÀ THƯƠNG MẠI HOÀNG BÁCH</t>
+          <t>0304244471</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C9/16A31 Bùi Thanh Khiết, khu phố 3, Thị Trấn Tân Túc, Huyện Bình Chánh, Thành phố Hồ Chí Minh, Việt Nam</t>
+          <t>r46jvxmvxg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0779106126</t>
+          <t>https://tracuuhoadon.fpt.com.vn/search.html</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>110605110688</t>
+          <t xml:space="preserve">fail: TimeoutException: Message: 
+Stacktrace:
+	GetHandleVerifier [0x0x7ff7f3ea6f95+76917]
+	GetHandleVerifier [0x0x7ff7f3ea6ff0+77008]
+	(No symbol) [0x0x7ff7f3c59dea]
+	(No symbol) [0x0x7ff7f3cb0256]
+	(No symbol) [0x0x7ff7f3cb050c]
+	(No symbol) [0x0x7ff7f3d03887]
+	(No symbol) [0x0x7ff7f3cd84af]
+	(No symbol) [0x0x7ff7f3d0065c]
+	(No symbol) [0x0x7ff7f3cd8243]
+	(No symbol) [0x0x7ff7f3ca1431]
+	(No symbol) [0x0x7ff7f3ca21c3]
+	GetHandleVerifier [0x0x7ff7f417d2cd+3051437]
+	GetHandleVerifier [0x0x7ff7f4177923+3028483]
+	GetHandleVerifier [0x0x7ff7f41958bd+3151261]
+	GetHandleVerifier [0x0x7ff7f3ec185e+185662]
+	GetHandleVerifier [0x0x7ff7f3ec971f+218111]
+	GetHandleVerifier [0x0x7ff7f3eafb14+112628]
+	GetHandleVerifier [0x0x7ff7f3eafcc9+113065]
+	GetHandleVerifier [0x0x7ff7f3e96c98+10616]
+	BaseThreadInitThunk [0x0x7ffaf4e57374+20]
+	RtlUserThreadStart [0x0x7ffaf6d1cc91+33]
+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CHI NHÁNH LIÊN HIỆP HỢP TÁC XÃ THƯƠNG MẠI TP.HỒ CHÍ MINH - CO.OPMART CHU VĂN AN</t>
+          <t>00023079</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tầng 1-Tầng 2 Khối A&amp;B Cao ốc Đất Phương Nam 241A Chu Văn An, Phường 12, Quận Bình Thạnh, TP Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>CÔNG TY CỔ PHẦN PHÚ TRƯỜNG QUỐC TẾ</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0304308445</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>đã tải thành công</t>
+          <t>15A1 Đường Nguyễn Hữu Thọ, Xã Phước Kiển, Huyện Nhà Bè, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0181003527080</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Liên Hiệp Hợp Tác Xã Thương Mại TP.HCM</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>199-205 Nguyễn Thái Học, Phường Phạm Ngũ Lão, Quận 01, Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0301175691</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0304308445rzmwy1yo4g.xml</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00002426</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CÔNG TY TNHH CHĂN NUÔI TAFA VIỆT</t>
+          <t>0304308445</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thôn 1, Xã Trà Tân, Huyện Đức Linh, Tỉnh Bình Thuận, Việt Nam</t>
+          <t>rzmwy1yo4g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(028) 777 00 322</t>
+          <t>https://tracuuhoadon.fpt.com.vn/search.html</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5400 201 010 928</t>
+          <t xml:space="preserve">fail: InvalidSessionIdException: Message: invalid session id
+Stacktrace:
+	GetHandleVerifier [0x0x7ff7f3ea6f95+76917]
+	GetHandleVerifier [0x0x7ff7f3ea6ff0+77008]
+	(No symbol) [0x0x7ff7f3c59c1c]
+	(No symbol) [0x0x7ff7f3ca055f]
+	(No symbol) [0x0x7ff7f3cd8332]
+	(No symbol) [0x0x7ff7f3cd2e53]
+	(No symbol) [0x0x7ff7f3cd1f19]
+	(No symbol) [0x0x7ff7f3c24b05]
+	GetHandleVerifier [0x0x7ff7f417d2cd+3051437]
+	GetHandleVerifier [0x0x7ff7f4177923+3028483]
+	GetHandleVerifier [0x0x7ff7f41958bd+3151261]
+	GetHandleVerifier [0x0x7ff7f3ec185e+185662]
+	GetHandleVerifier [0x0x7ff7f3ec971f+218111]
+	(No symbol) [0x0x7ff7f3c23b00]
+	GetHandleVerifier [0x0x7ff7f4295f38+4201496]
+	BaseThreadInitThunk [0x0x7ffaf4e57374+20]
+	RtlUserThreadStart [0x0x7ffaf6d1cc91+33]
+</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CÔNG TY TNHH MỘT THÀNH VIÊN TMDV SIÊU THỊ CO.OPMART ĐÀ NẴNG</t>
+          <t>00000094</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>478 Điện Biên Phủ, Phường Thanh Khê Đông, Quận Thanh Khê, Thành phố Đà Nẵng, Việt Nam</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>CÔNG TY TNHH ĐẦU TƯ - SẢN XUẤT VÀ THƯƠNG MẠI HOÀNG BÁCH</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0318580994</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>đã tải thành công</t>
+          <t>C9/16A31 Bùi Thanh Khiết, khu phố 3, Thị Trấn Tân Túc, Huyện Bình Chánh, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>110605110688</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CHI NHÁNH LIÊN HIỆP HỢP TÁC XÃ THƯƠNG MẠI TP.HỒ CHÍ MINH - CO.OPMART CHU VĂN AN</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Tầng 1-Tầng 2 Khối A&amp;B Cao ốc Đất Phương Nam 241A Chu Văn An, Phường 12, Quận Bình Thạnh, TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0301175691-036</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1C25THA_00000094_0301175691-036.xml</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00004221</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ NAM KHẢI PHÚ</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>81 Cách Mạng Tháng Tám, Phường Bến Thành, Quận 1, Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>B1HEIRR8N0WP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.meinvoice.vn/tra-cuu/</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chi Nhánh Liên Hiệp Hợp Tác Xã Thương Mại TP.Hồ Chí Minh - Co.opMart Cái Bè</t>
+          <t>00002426</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Khu 2, Thị trấn Cái Bè, Huyện Cái Bè, Tỉnh Tiền Giang</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>CÔNG TY TNHH CHĂN NUÔI TAFA VIỆT</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3401142134</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>đã tải thành công</t>
+          <t>Thôn 1, Xã Trà Tân, Huyện Đức Linh, Tỉnh Bình Thuận, Việt Nam</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>5400 201 010 928</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN TMDV SIÊU THỊ CO.OPMART ĐÀ NẴNG</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>478 Điện Biên Phủ, Phường Thanh Khê Đông, Quận Thanh Khê, Thành phố Đà Nẵng, Việt Nam</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0401281414</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1C25TTV_00002426_0401281414.xml</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PZH_FWQ4BN3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.meinvoice.vn/tra-cuu/</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fail: TimeoutException: Message: 
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>00004221</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ NAM KHẢI PHÚ</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0312563329</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>81 Cách Mạng Tháng Tám, Phường Bến Thành, Quận 1, Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Chi Nhánh Liên Hiệp Hợp Tác Xã Thương Mại TP.Hồ Chí Minh - Co.opMart Cái Bè</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Khu 2, Thị trấn Cái Bè, Huyện Cái Bè, Tỉnh Tiền Giang</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0301175691-068</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>C25TKP-00004221-NII30XVQWNC-DPH.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>VBHKSL682918</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.meinvoice.vn/tra-cuu/</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>00004288</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ NAM KHẢI PHÚ</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0312563329</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>81 Cách Mạng Tháng Tám, Phường Bến Thành, Quận 1, Hồ Chí Minh</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Chi Nhánh Liên Hiệp Hợp Tác Xã Thương Mại TP.Hồ Chí Minh - Co.opMart Cái Bè</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Khu 2, Thị trấn Cái Bè, Huyện Cái Bè, Tỉnh Tiền Giang</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>đã tải thành công</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0301175691-068</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>C25TKP-00004288-MIJ634K9JAD-DPH.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NII30XVQWNC</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://van.ehoadon.vn/TCHD?MTC=</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MHPLO8W6EMD</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://van.ehoadon.vn/TCHD?MTC=</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fail: TimeoutException: Message: 
+Stacktrace:
+	GetHandleVerifier [0x0x7ff7f3ea6f95+76917]
+	GetHandleVerifier [0x0x7ff7f3ea6ff0+77008]
+	(No symbol) [0x0x7ff7f3c59dea]
+	(No symbol) [0x0x7ff7f3cb0256]
+	(No symbol) [0x0x7ff7f3cb050c]
+	(No symbol) [0x0x7ff7f3d03887]
+	(No symbol) [0x0x7ff7f3cd84af]
+	(No symbol) [0x0x7ff7f3d0065c]
+	(No symbol) [0x0x7ff7f3cd8243]
+	(No symbol) [0x0x7ff7f3ca1431]
+	(No symbol) [0x0x7ff7f3ca21c3]
+	GetHandleVerifier [0x0x7ff7f417d2cd+3051437]
+	GetHandleVerifier [0x0x7ff7f4177923+3028483]
+	GetHandleVerifier [0x0x7ff7f41958bd+3151261]
+	GetHandleVerifier [0x0x7ff7f3ec185e+185662]
+	GetHandleVerifier [0x0x7ff7f3ec971f+218111]
+	GetHandleVerifier [0x0x7ff7f3eafb14+112628]
+	GetHandleVerifier [0x0x7ff7f3eafcc9+113065]
+	GetHandleVerifier [0x0x7ff7f3e96c98+10616]
+	BaseThreadInitThunk [0x0x7ffaf4e57374+20]
+	RtlUserThreadStart [0x0x7ffaf6d1cc91+33]
+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MIJ634K9JAD</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://van.ehoadon.vn/TCHD?MTC=</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fpt_download/output.xlsx
+++ b/fpt_download/output.xlsx
@@ -530,21 +530,21 @@
         <is>
           <t xml:space="preserve">fail: InvalidSessionIdException: Message: invalid session id
 Stacktrace:
-	GetHandleVerifier [0x0x7ff7f3ea6f95+76917]
-	GetHandleVerifier [0x0x7ff7f3ea6ff0+77008]
-	(No symbol) [0x0x7ff7f3c59c1c]
-	(No symbol) [0x0x7ff7f3ca055f]
-	(No symbol) [0x0x7ff7f3cd8332]
-	(No symbol) [0x0x7ff7f3cd2e53]
-	(No symbol) [0x0x7ff7f3cd1f19]
-	(No symbol) [0x0x7ff7f3c24b05]
-	GetHandleVerifier [0x0x7ff7f417d2cd+3051437]
-	GetHandleVerifier [0x0x7ff7f4177923+3028483]
-	GetHandleVerifier [0x0x7ff7f41958bd+3151261]
-	GetHandleVerifier [0x0x7ff7f3ec185e+185662]
-	GetHandleVerifier [0x0x7ff7f3ec971f+218111]
-	(No symbol) [0x0x7ff7f3c23b00]
-	GetHandleVerifier [0x0x7ff7f4295f38+4201496]
+	GetHandleVerifier [0x0x7ff60e9d6f95+76917]
+	GetHandleVerifier [0x0x7ff60e9d6ff0+77008]
+	(No symbol) [0x0x7ff60e789c1c]
+	(No symbol) [0x0x7ff60e7d055f]
+	(No symbol) [0x0x7ff60e808332]
+	(No symbol) [0x0x7ff60e802e53]
+	(No symbol) [0x0x7ff60e801f19]
+	(No symbol) [0x0x7ff60e754b05]
+	GetHandleVerifier [0x0x7ff60ecad2cd+3051437]
+	GetHandleVerifier [0x0x7ff60eca7923+3028483]
+	GetHandleVerifier [0x0x7ff60ecc58bd+3151261]
+	GetHandleVerifier [0x0x7ff60e9f185e+185662]
+	GetHandleVerifier [0x0x7ff60e9f971f+218111]
+	(No symbol) [0x0x7ff60e753b00]
+	GetHandleVerifier [0x0x7ff60edc5f38+4201496]
 	BaseThreadInitThunk [0x0x7ffaf4e57374+20]
 	RtlUserThreadStart [0x0x7ffaf6d1cc91+33]
 </t>
@@ -617,25 +617,25 @@
         <is>
           <t xml:space="preserve">fail: TimeoutException: Message: 
 Stacktrace:
-	GetHandleVerifier [0x0x7ff7f3ea6f95+76917]
-	GetHandleVerifier [0x0x7ff7f3ea6ff0+77008]
-	(No symbol) [0x0x7ff7f3c59dea]
-	(No symbol) [0x0x7ff7f3cb0256]
-	(No symbol) [0x0x7ff7f3cb050c]
-	(No symbol) [0x0x7ff7f3d03887]
-	(No symbol) [0x0x7ff7f3cd84af]
-	(No symbol) [0x0x7ff7f3d0065c]
-	(No symbol) [0x0x7ff7f3cd8243]
-	(No symbol) [0x0x7ff7f3ca1431]
-	(No symbol) [0x0x7ff7f3ca21c3]
-	GetHandleVerifier [0x0x7ff7f417d2cd+3051437]
-	GetHandleVerifier [0x0x7ff7f4177923+3028483]
-	GetHandleVerifier [0x0x7ff7f41958bd+3151261]
-	GetHandleVerifier [0x0x7ff7f3ec185e+185662]
-	GetHandleVerifier [0x0x7ff7f3ec971f+218111]
-	GetHandleVerifier [0x0x7ff7f3eafb14+112628]
-	GetHandleVerifier [0x0x7ff7f3eafcc9+113065]
-	GetHandleVerifier [0x0x7ff7f3e96c98+10616]
+	GetHandleVerifier [0x0x7ff60e9d6f95+76917]
+	GetHandleVerifier [0x0x7ff60e9d6ff0+77008]
+	(No symbol) [0x0x7ff60e789dea]
+	(No symbol) [0x0x7ff60e7e0256]
+	(No symbol) [0x0x7ff60e7e050c]
+	(No symbol) [0x0x7ff60e833887]
+	(No symbol) [0x0x7ff60e8084af]
+	(No symbol) [0x0x7ff60e83065c]
+	(No symbol) [0x0x7ff60e808243]
+	(No symbol) [0x0x7ff60e7d1431]
+	(No symbol) [0x0x7ff60e7d21c3]
+	GetHandleVerifier [0x0x7ff60ecad2cd+3051437]
+	GetHandleVerifier [0x0x7ff60eca7923+3028483]
+	GetHandleVerifier [0x0x7ff60ecc58bd+3151261]
+	GetHandleVerifier [0x0x7ff60e9f185e+185662]
+	GetHandleVerifier [0x0x7ff60e9f971f+218111]
+	GetHandleVerifier [0x0x7ff60e9dfb14+112628]
+	GetHandleVerifier [0x0x7ff60e9dfcc9+113065]
+	GetHandleVerifier [0x0x7ff60e9c6c98+10616]
 	BaseThreadInitThunk [0x0x7ffaf4e57374+20]
 	RtlUserThreadStart [0x0x7ffaf6d1cc91+33]
 </t>
@@ -712,21 +712,21 @@
         <is>
           <t xml:space="preserve">fail: InvalidSessionIdException: Message: invalid session id
 Stacktrace:
-	GetHandleVerifier [0x0x7ff7f3ea6f95+76917]
-	GetHandleVerifier [0x0x7ff7f3ea6ff0+77008]
-	(No symbol) [0x0x7ff7f3c59c1c]
-	(No symbol) [0x0x7ff7f3ca055f]
-	(No symbol) [0x0x7ff7f3cd8332]
-	(No symbol) [0x0x7ff7f3cd2e53]
-	(No symbol) [0x0x7ff7f3cd1f19]
-	(No symbol) [0x0x7ff7f3c24b05]
-	GetHandleVerifier [0x0x7ff7f417d2cd+3051437]
-	GetHandleVerifier [0x0x7ff7f4177923+3028483]
-	GetHandleVerifier [0x0x7ff7f41958bd+3151261]
-	GetHandleVerifier [0x0x7ff7f3ec185e+185662]
-	GetHandleVerifier [0x0x7ff7f3ec971f+218111]
-	(No symbol) [0x0x7ff7f3c23b00]
-	GetHandleVerifier [0x0x7ff7f4295f38+4201496]
+	GetHandleVerifier [0x0x7ff60e9d6f95+76917]
+	GetHandleVerifier [0x0x7ff60e9d6ff0+77008]
+	(No symbol) [0x0x7ff60e789c1c]
+	(No symbol) [0x0x7ff60e7d055f]
+	(No symbol) [0x0x7ff60e808332]
+	(No symbol) [0x0x7ff60e802e53]
+	(No symbol) [0x0x7ff60e801f19]
+	(No symbol) [0x0x7ff60e754b05]
+	GetHandleVerifier [0x0x7ff60ecad2cd+3051437]
+	GetHandleVerifier [0x0x7ff60eca7923+3028483]
+	GetHandleVerifier [0x0x7ff60ecc58bd+3151261]
+	GetHandleVerifier [0x0x7ff60e9f185e+185662]
+	GetHandleVerifier [0x0x7ff60e9f971f+218111]
+	(No symbol) [0x0x7ff60e753b00]
+	GetHandleVerifier [0x0x7ff60edc5f38+4201496]
 	BaseThreadInitThunk [0x0x7ffaf4e57374+20]
 	RtlUserThreadStart [0x0x7ffaf6d1cc91+33]
 </t>
@@ -1028,25 +1028,25 @@
         <is>
           <t xml:space="preserve">fail: TimeoutException: Message: 
 Stacktrace:
-	GetHandleVerifier [0x0x7ff7f3ea6f95+76917]
-	GetHandleVerifier [0x0x7ff7f3ea6ff0+77008]
-	(No symbol) [0x0x7ff7f3c59dea]
-	(No symbol) [0x0x7ff7f3cb0256]
-	(No symbol) [0x0x7ff7f3cb050c]
-	(No symbol) [0x0x7ff7f3d03887]
-	(No symbol) [0x0x7ff7f3cd84af]
-	(No symbol) [0x0x7ff7f3d0065c]
-	(No symbol) [0x0x7ff7f3cd8243]
-	(No symbol) [0x0x7ff7f3ca1431]
-	(No symbol) [0x0x7ff7f3ca21c3]
-	GetHandleVerifier [0x0x7ff7f417d2cd+3051437]
-	GetHandleVerifier [0x0x7ff7f4177923+3028483]
-	GetHandleVerifier [0x0x7ff7f41958bd+3151261]
-	GetHandleVerifier [0x0x7ff7f3ec185e+185662]
-	GetHandleVerifier [0x0x7ff7f3ec971f+218111]
-	GetHandleVerifier [0x0x7ff7f3eafb14+112628]
-	GetHandleVerifier [0x0x7ff7f3eafcc9+113065]
-	GetHandleVerifier [0x0x7ff7f3e96c98+10616]
+	GetHandleVerifier [0x0x7ff60e9d6f95+76917]
+	GetHandleVerifier [0x0x7ff60e9d6ff0+77008]
+	(No symbol) [0x0x7ff60e789dea]
+	(No symbol) [0x0x7ff60e7e0256]
+	(No symbol) [0x0x7ff60e7e050c]
+	(No symbol) [0x0x7ff60e833887]
+	(No symbol) [0x0x7ff60e8084af]
+	(No symbol) [0x0x7ff60e83065c]
+	(No symbol) [0x0x7ff60e808243]
+	(No symbol) [0x0x7ff60e7d1431]
+	(No symbol) [0x0x7ff60e7d21c3]
+	GetHandleVerifier [0x0x7ff60ecad2cd+3051437]
+	GetHandleVerifier [0x0x7ff60eca7923+3028483]
+	GetHandleVerifier [0x0x7ff60ecc58bd+3151261]
+	GetHandleVerifier [0x0x7ff60e9f185e+185662]
+	GetHandleVerifier [0x0x7ff60e9f971f+218111]
+	GetHandleVerifier [0x0x7ff60e9dfb14+112628]
+	GetHandleVerifier [0x0x7ff60e9dfcc9+113065]
+	GetHandleVerifier [0x0x7ff60e9c6c98+10616]
 	BaseThreadInitThunk [0x0x7ffaf4e57374+20]
 	RtlUserThreadStart [0x0x7ffaf6d1cc91+33]
 </t>
